--- a/app/Licenciatura_Em_Engenharia_do_Ambiente.xlsx
+++ b/app/Licenciatura_Em_Engenharia_do_Ambiente.xlsx
@@ -18,37 +18,34 @@
     <sheet name="20150682" sheetId="8" r:id="rId11"/>
     <sheet name="20150666" sheetId="9" r:id="rId12"/>
     <sheet name="20150679" sheetId="10" r:id="rId13"/>
-    <sheet name="20154393" sheetId="11" r:id="rId14"/>
-    <sheet name="20150672" sheetId="12" r:id="rId15"/>
-    <sheet name="20150662" sheetId="13" r:id="rId16"/>
-    <sheet name="20150675" sheetId="14" r:id="rId17"/>
-    <sheet name="20150694" sheetId="15" r:id="rId18"/>
-    <sheet name="20150695" sheetId="16" r:id="rId19"/>
-    <sheet name="20150680" sheetId="17" r:id="rId20"/>
-    <sheet name="20150677" sheetId="18" r:id="rId21"/>
-    <sheet name="20150664" sheetId="19" r:id="rId22"/>
-    <sheet name="20150687" sheetId="20" r:id="rId23"/>
-    <sheet name="20150670" sheetId="21" r:id="rId24"/>
-    <sheet name="20154791" sheetId="22" r:id="rId25"/>
-    <sheet name="20150671" sheetId="23" r:id="rId26"/>
-    <sheet name="20150689" sheetId="24" r:id="rId27"/>
-    <sheet name="20150686" sheetId="25" r:id="rId28"/>
-    <sheet name="20150678" sheetId="26" r:id="rId29"/>
-    <sheet name="20150692" sheetId="27" r:id="rId30"/>
-    <sheet name="20150665" sheetId="28" r:id="rId31"/>
-    <sheet name="20154834" sheetId="29" r:id="rId32"/>
-    <sheet name="20150696" sheetId="30" r:id="rId33"/>
-    <sheet name="20150668" sheetId="31" r:id="rId34"/>
-    <sheet name="20150693" sheetId="32" r:id="rId35"/>
-    <sheet name="20150667" sheetId="33" r:id="rId36"/>
-    <sheet name="20150676" sheetId="34" r:id="rId37"/>
-    <sheet name="20150685" sheetId="35" r:id="rId38"/>
-    <sheet name="20150684" sheetId="36" r:id="rId39"/>
-    <sheet name="20150673" sheetId="37" r:id="rId40"/>
-    <sheet name="20150663" sheetId="38" r:id="rId41"/>
-    <sheet name="20150691" sheetId="39" r:id="rId42"/>
-    <sheet name="Sheet2" sheetId="40" r:id="rId43"/>
-    <sheet name="Sheet3" sheetId="41" r:id="rId44"/>
+    <sheet name="20150672" sheetId="11" r:id="rId14"/>
+    <sheet name="20150662" sheetId="12" r:id="rId15"/>
+    <sheet name="20150675" sheetId="13" r:id="rId16"/>
+    <sheet name="20150694" sheetId="14" r:id="rId17"/>
+    <sheet name="20150695" sheetId="15" r:id="rId18"/>
+    <sheet name="20150680" sheetId="16" r:id="rId19"/>
+    <sheet name="20150677" sheetId="17" r:id="rId20"/>
+    <sheet name="20150664" sheetId="18" r:id="rId21"/>
+    <sheet name="20150687" sheetId="19" r:id="rId22"/>
+    <sheet name="20150670" sheetId="20" r:id="rId23"/>
+    <sheet name="20150671" sheetId="21" r:id="rId24"/>
+    <sheet name="20150689" sheetId="22" r:id="rId25"/>
+    <sheet name="20150686" sheetId="23" r:id="rId26"/>
+    <sheet name="20150678" sheetId="24" r:id="rId27"/>
+    <sheet name="20150692" sheetId="25" r:id="rId28"/>
+    <sheet name="20150665" sheetId="26" r:id="rId29"/>
+    <sheet name="20150696" sheetId="27" r:id="rId30"/>
+    <sheet name="20150668" sheetId="28" r:id="rId31"/>
+    <sheet name="20150693" sheetId="29" r:id="rId32"/>
+    <sheet name="20150667" sheetId="30" r:id="rId33"/>
+    <sheet name="20150676" sheetId="31" r:id="rId34"/>
+    <sheet name="20150685" sheetId="32" r:id="rId35"/>
+    <sheet name="20150684" sheetId="33" r:id="rId36"/>
+    <sheet name="20150673" sheetId="34" r:id="rId37"/>
+    <sheet name="20150663" sheetId="35" r:id="rId38"/>
+    <sheet name="20150691" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -56,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -205,9 +202,6 @@
     <t>Joaquim Silva Zitha</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>Umbelina Da C.p. C. Zedo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>Lola Elsa Menete Mendes</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100481769S</t>
   </si>
   <si>
@@ -388,9 +376,6 @@
     <t>Albertina Fernando Tivane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110202328906Q</t>
   </si>
   <si>
@@ -415,9 +400,6 @@
     <t>Marta Eugenio Macane</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100201534647S</t>
   </si>
   <si>
@@ -427,15 +409,6 @@
     <t>Escola Secundaria Joaquim Chissano</t>
   </si>
   <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>Vania Dulcineia</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salato </t>
   </si>
   <si>
@@ -451,9 +424,6 @@
     <t xml:space="preserve">Marialice Lufiand Estivo </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t xml:space="preserve">040101114264Q </t>
   </si>
   <si>
@@ -478,9 +448,6 @@
     <t>Marta Alberto Langa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100782174P</t>
   </si>
   <si>
@@ -529,9 +496,6 @@
     <t xml:space="preserve">Anastancia Bila </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110200186191M</t>
   </si>
   <si>
@@ -619,9 +583,6 @@
     <t>ConstÂncia Guiamba</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100221850B</t>
   </si>
   <si>
@@ -673,12 +634,6 @@
     <t>Escola Secundaria de Malhazine</t>
   </si>
   <si>
-    <t>Mutchamua</t>
-  </si>
-  <si>
-    <t>Vera Cláudia</t>
-  </si>
-  <si>
     <t>Mungoi</t>
   </si>
   <si>
@@ -736,9 +691,6 @@
     <t>Zaida Valente Massangaie</t>
   </si>
   <si>
-    <t>Distrito de Zavala</t>
-  </si>
-  <si>
     <t>081401354452I</t>
   </si>
   <si>
@@ -814,12 +766,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Manhique</t>
-  </si>
-  <si>
-    <t>Melaine Márcia Samuel</t>
-  </si>
-  <si>
     <t>Mandlante</t>
   </si>
   <si>
@@ -898,9 +844,6 @@
     <t>Mina Fernando Chana</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090601098810J</t>
   </si>
   <si>
@@ -941,9 +884,6 @@
   </si>
   <si>
     <t>Marta Jose Mabasso</t>
-  </si>
-  <si>
-    <t>Cidade de Chimoio</t>
   </si>
   <si>
     <t>060101449463S</t>
@@ -2302,7 +2242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2318,7 +2258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2334,7 +2274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2350,7 +2290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2366,7 +2306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2381,9 +2321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2391,7 +2329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2402,7 +2340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2411,7 +2349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2423,7 +2361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2431,7 +2369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2527,7 +2465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2570,7 +2508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2821,7 +2759,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2871,7 +2811,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154393</v>
+        <v>20150672</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2895,7 +2835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2911,7 +2851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2926,7 +2866,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -2940,7 +2882,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2954,7 +2898,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2975,7 +2921,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2984,14 +2932,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -3001,13 +2953,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -3102,7 +3058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3128,7 +3084,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -3142,7 +3100,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -3444,7 +3404,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150672</v>
+        <v>20150662</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3547,9 +3507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3557,7 +3515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3568,7 +3526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3577,7 +3535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3589,7 +3547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3597,7 +3555,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3693,7 +3651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3720,7 +3678,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3736,7 +3694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4039,7 +3997,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150662</v>
+        <v>20150675</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4063,7 +4021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4079,7 +4037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4095,7 +4053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4111,7 +4069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4127,7 +4085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4142,9 +4100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4152,7 +4108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4163,7 +4119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4172,7 +4128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4184,7 +4140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4192,7 +4148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4288,7 +4244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4315,7 +4271,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4331,7 +4287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4634,7 +4590,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150675</v>
+        <v>20150694</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4658,7 +4614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4674,7 +4630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4690,7 +4646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4706,7 +4662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4722,7 +4678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4737,9 +4693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4747,7 +4701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4758,7 +4712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4767,7 +4721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4779,7 +4733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4787,7 +4741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4883,7 +4837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4910,7 +4864,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4926,7 +4880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5229,7 +5183,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150694</v>
+        <v>20150695</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5253,7 +5207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5269,7 +5223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5285,7 +5239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5301,7 +5255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5317,7 +5271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5332,9 +5286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5342,7 +5294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5353,7 +5305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5362,7 +5314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5374,7 +5326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5382,7 +5334,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5478,7 +5430,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5505,7 +5457,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5521,7 +5473,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5824,7 +5776,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150695</v>
+        <v>20150680</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5848,7 +5800,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5864,7 +5816,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5880,7 +5832,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5896,7 +5848,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5912,7 +5864,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5927,9 +5879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5937,7 +5887,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5948,7 +5898,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5957,7 +5907,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5969,7 +5919,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5977,7 +5927,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6073,7 +6023,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6100,7 +6050,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6116,7 +6066,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6419,7 +6369,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150680</v>
+        <v>20150677</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6443,7 +6393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6459,7 +6409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6475,7 +6425,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6491,7 +6441,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6507,7 +6457,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6522,9 +6472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6532,7 +6480,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6543,7 +6491,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6552,7 +6500,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6564,7 +6512,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6572,7 +6520,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6668,7 +6616,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6711,7 +6659,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7014,7 +6962,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150677</v>
+        <v>20150664</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7038,7 +6986,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7054,7 +7002,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7070,7 +7018,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7086,7 +7034,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7102,7 +7050,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7117,9 +7065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7127,7 +7073,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7138,7 +7084,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7147,7 +7093,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7159,7 +7105,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7167,7 +7113,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7263,7 +7209,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7306,7 +7252,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7609,7 +7555,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150664</v>
+        <v>20150687</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7633,7 +7579,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7649,7 +7595,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7665,7 +7611,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7681,7 +7627,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7697,7 +7643,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7712,9 +7658,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7722,7 +7666,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7733,7 +7677,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7742,7 +7686,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7754,7 +7698,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7762,7 +7706,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7858,7 +7802,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7901,7 +7845,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8307,9 +8251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8317,7 +8259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8328,7 +8270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8337,7 +8279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8349,7 +8291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8357,7 +8299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8453,7 +8395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8496,7 +8438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8799,7 +8741,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150687</v>
+        <v>20150670</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8823,7 +8765,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8839,7 +8781,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8855,7 +8797,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8871,7 +8813,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8887,7 +8829,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8902,9 +8844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8912,7 +8852,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8923,7 +8863,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8932,7 +8872,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8944,7 +8884,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8952,7 +8892,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9048,7 +8988,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9075,7 +9015,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9091,7 +9031,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9394,7 +9334,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150670</v>
+        <v>20150671</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9418,7 +9358,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9434,7 +9374,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9450,7 +9390,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9466,7 +9406,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9482,7 +9422,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9497,9 +9437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9507,7 +9445,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9518,7 +9456,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9527,7 +9465,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9539,7 +9477,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9547,7 +9485,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9643,7 +9581,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9670,7 +9608,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9686,7 +9624,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9937,7 +9875,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9987,7 +9927,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154791</v>
+        <v>20150689</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10011,7 +9951,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10027,7 +9967,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10042,7 +9982,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10056,7 +9998,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10070,7 +10014,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10091,7 +10037,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10100,14 +10048,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10117,13 +10069,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10218,7 +10174,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10244,7 +10200,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10258,7 +10216,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10560,7 +10520,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150671</v>
+        <v>20150686</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10663,9 +10623,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10673,7 +10631,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10684,7 +10642,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10693,7 +10651,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10705,7 +10663,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10836,7 +10794,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10852,7 +10810,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11155,7 +11113,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150689</v>
+        <v>20150678</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11179,7 +11137,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11195,7 +11153,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11211,7 +11169,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11227,7 +11185,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11243,7 +11201,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11258,9 +11216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11268,7 +11224,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11279,7 +11235,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11288,7 +11244,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11300,7 +11256,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11308,7 +11264,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11404,7 +11360,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11431,7 +11387,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11447,7 +11403,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11750,7 +11706,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150686</v>
+        <v>20150692</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11774,7 +11730,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11790,7 +11746,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11806,7 +11762,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11822,7 +11778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11838,7 +11794,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11853,9 +11809,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11863,7 +11817,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11874,7 +11828,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11883,7 +11837,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11895,7 +11849,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12042,7 +11996,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12345,7 +12299,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150678</v>
+        <v>20150665</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12369,7 +12323,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12385,7 +12339,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12401,7 +12355,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12417,7 +12371,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12433,7 +12387,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12448,9 +12402,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12458,7 +12410,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12469,7 +12421,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12478,7 +12430,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12490,7 +12442,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12498,7 +12450,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12594,7 +12546,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12637,7 +12589,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12940,7 +12892,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150692</v>
+        <v>20150696</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13043,9 +12995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13053,7 +13003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13064,7 +13014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13073,7 +13023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13085,7 +13035,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13216,7 +13166,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13232,7 +13182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13535,7 +13485,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150665</v>
+        <v>20150668</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13638,9 +13588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13648,7 +13596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13659,7 +13607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13668,7 +13616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13680,7 +13628,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13827,7 +13775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14078,7 +14026,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14128,7 +14078,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154834</v>
+        <v>20150693</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14152,7 +14102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14168,7 +14118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14183,7 +14133,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14197,7 +14149,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14211,7 +14165,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14232,7 +14188,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14241,14 +14199,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14258,13 +14220,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14359,7 +14325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14385,7 +14351,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2010</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14399,7 +14367,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14725,7 +14695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14741,7 +14711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14757,7 +14727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14773,7 +14743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14789,7 +14759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14804,9 +14774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14814,7 +14782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14825,7 +14793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14834,7 +14802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14846,7 +14814,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14854,7 +14822,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14950,7 +14918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14993,7 +14961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15296,7 +15264,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150696</v>
+        <v>20150667</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15320,7 +15288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15336,7 +15304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15352,7 +15320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15368,7 +15336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15384,7 +15352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15399,9 +15367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15409,7 +15375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15420,7 +15386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15429,7 +15395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15441,7 +15407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15449,7 +15415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15545,7 +15511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15572,7 +15538,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15588,7 +15554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15891,7 +15857,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150668</v>
+        <v>20150676</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15915,7 +15881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15931,7 +15897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15947,7 +15913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15963,7 +15929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15979,7 +15945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15994,9 +15960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16004,7 +15968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16015,7 +15979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16024,7 +15988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16036,15 +16000,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>266</v>
+      <c r="H17" s="20">
+        <v>3127330</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16140,7 +16104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16183,7 +16147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16486,7 +16450,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150693</v>
+        <v>20150685</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16510,7 +16474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16526,7 +16490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16542,7 +16506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16558,7 +16522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16574,7 +16538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16589,9 +16553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16599,7 +16561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16610,7 +16572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16619,7 +16581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16631,7 +16593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16639,7 +16601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16735,7 +16697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16762,7 +16724,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16778,7 +16740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17081,7 +17043,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150667</v>
+        <v>20150684</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17105,7 +17067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17121,7 +17083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17137,7 +17099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17153,7 +17115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17169,7 +17131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17184,9 +17146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>280</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17194,7 +17154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17205,7 +17165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17214,7 +17174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17226,7 +17186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17234,7 +17194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17330,7 +17290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17357,7 +17317,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17373,7 +17333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17676,7 +17636,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150676</v>
+        <v>20150673</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17700,7 +17660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17716,7 +17676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17732,7 +17692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17748,7 +17708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17764,7 +17724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17779,9 +17739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17789,7 +17747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17800,7 +17758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17809,7 +17767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17821,15 +17779,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3127330</v>
+      <c r="H17" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17925,7 +17883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17968,7 +17926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18271,7 +18229,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150685</v>
+        <v>20150663</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18295,7 +18253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18311,7 +18269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18327,7 +18285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18343,7 +18301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18359,7 +18317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18374,9 +18332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>295</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18384,7 +18340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18395,7 +18351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18404,7 +18360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18416,7 +18372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18424,7 +18380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18520,7 +18476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18563,7 +18519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18866,7 +18822,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150684</v>
+        <v>20150691</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18890,7 +18846,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18906,7 +18862,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18922,7 +18878,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18938,7 +18894,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18954,7 +18910,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18969,9 +18925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18979,7 +18933,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18990,7 +18944,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18999,7 +18953,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19011,7 +18965,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19019,7 +18973,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19115,7 +19069,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19142,7 +19096,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19158,7 +19112,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19361,6 +19315,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19461,7 +19471,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150673</v>
+        <v>20150688</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19485,7 +19495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19501,7 +19511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19517,7 +19527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>308</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19533,7 +19543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19549,7 +19559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19564,9 +19574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19574,7 +19582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19585,7 +19593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19594,7 +19602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19606,7 +19614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19614,7 +19622,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19710,7 +19718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19753,7 +19761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>313</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19951,1847 +19959,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150663</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150691</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150688</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -21921,7 +20088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21937,7 +20104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21953,7 +20120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21969,7 +20136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21985,7 +20152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22000,9 +20167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22010,7 +20175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22021,7 +20186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22030,7 +20195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22042,7 +20207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22050,7 +20215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22146,7 +20311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22189,7 +20354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22516,7 +20681,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22532,7 +20697,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22548,7 +20713,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22564,7 +20729,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22580,7 +20745,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22595,9 +20760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22605,7 +20768,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22616,7 +20779,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22625,7 +20788,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22637,7 +20800,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22645,7 +20808,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22741,7 +20904,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22784,7 +20947,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23111,7 +21274,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23127,7 +21290,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23143,7 +21306,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23159,7 +21322,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23175,7 +21338,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23190,9 +21353,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23200,7 +21361,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23211,7 +21372,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23220,7 +21381,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23232,7 +21393,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23240,7 +21401,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23336,7 +21497,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23379,7 +21540,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23706,7 +21867,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23722,7 +21883,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23738,7 +21899,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23754,7 +21915,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23770,7 +21931,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23785,9 +21946,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23795,7 +21954,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23806,7 +21965,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23815,7 +21974,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23827,7 +21986,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23835,7 +21994,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23931,7 +22090,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23974,7 +22133,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24301,7 +22460,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24317,7 +22476,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24333,7 +22492,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24349,7 +22508,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24365,7 +22524,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24380,9 +22539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24390,7 +22547,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24401,7 +22558,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24410,7 +22567,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24422,7 +22579,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24430,7 +22587,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24526,7 +22683,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24569,7 +22726,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
